--- a/data.xlsx
+++ b/data.xlsx
@@ -1,19 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\neighborly\neighborly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/645455b7421bfddf/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B13EA2-F8B2-48B8-9A5F-1A5754DB472A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="178" documentId="8_{583A698F-6B76-41FD-AC08-6B0421F71028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D740E9E9-319E-407C-B2C4-AB22B7DACCF7}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Marketplace" sheetId="4" r:id="rId3"/>
+    <sheet name="Service" sheetId="2" r:id="rId4"/>
+    <sheet name="service-categgories" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$68</definedName>
@@ -28,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="189">
   <si>
     <t>CATEGORY</t>
   </si>
@@ -298,13 +302,310 @@
   </si>
   <si>
     <t>Savouries</t>
+  </si>
+  <si>
+    <t>Service Name</t>
+  </si>
+  <si>
+    <t>Bright Minds</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>GoKiddee</t>
+  </si>
+  <si>
+    <t>Summer Camp</t>
+  </si>
+  <si>
+    <t>Sub category</t>
+  </si>
+  <si>
+    <t>Toddlers day care</t>
+  </si>
+  <si>
+    <t>Day care</t>
+  </si>
+  <si>
+    <t>SELLER/COMAPANY NAME</t>
+  </si>
+  <si>
+    <t>STATTIONARY</t>
+  </si>
+  <si>
+    <t>Stationary hub</t>
+  </si>
+  <si>
+    <t>DISPOSABLES</t>
+  </si>
+  <si>
+    <t>Stationary hub and Dispo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stationary Hub and dispo mart </t>
+  </si>
+  <si>
+    <t>Printing and Xerox services</t>
+  </si>
+  <si>
+    <t>SUB CATEGORY</t>
+  </si>
+  <si>
+    <t>Clothing and Accessories</t>
+  </si>
+  <si>
+    <t>Kalamkari pure cotton sarees by Sowmya</t>
+  </si>
+  <si>
+    <t>A2Z Home Gardening</t>
+  </si>
+  <si>
+    <t>Gardening</t>
+  </si>
+  <si>
+    <t>Little artist painting camp</t>
+  </si>
+  <si>
+    <t>Summar camp</t>
+  </si>
+  <si>
+    <t>Food</t>
+  </si>
+  <si>
+    <t>Make my cake Manuja</t>
+  </si>
+  <si>
+    <t>Rathnagiri Alphanso Mango</t>
+  </si>
+  <si>
+    <t>Little Head Activity Center</t>
+  </si>
+  <si>
+    <t>Kransy Collections</t>
+  </si>
+  <si>
+    <t>Clothing and accessories</t>
+  </si>
+  <si>
+    <t>Samsritha Collections</t>
+  </si>
+  <si>
+    <t>Sarees</t>
+  </si>
+  <si>
+    <t>NV Bites</t>
+  </si>
+  <si>
+    <t>Personal trainer</t>
+  </si>
+  <si>
+    <t>Health and Fitness</t>
+  </si>
+  <si>
+    <t>Buffalo Junnu Milk</t>
+  </si>
+  <si>
+    <t>Keva Kaipo Ayurvedic products</t>
+  </si>
+  <si>
+    <t>Ayurveda</t>
+  </si>
+  <si>
+    <t>Home Furnishing</t>
+  </si>
+  <si>
+    <t>Curtains and accessories</t>
+  </si>
+  <si>
+    <t>curtain rods</t>
+  </si>
+  <si>
+    <t>Indoor Lighting</t>
+  </si>
+  <si>
+    <t>Floor lamps</t>
+  </si>
+  <si>
+    <t>Furniture</t>
+  </si>
+  <si>
+    <t>Swing chairs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Furniture </t>
+  </si>
+  <si>
+    <t>Office chair</t>
+  </si>
+  <si>
+    <t>Computers and accessories</t>
+  </si>
+  <si>
+    <t>Mini UPS for Wifi</t>
+  </si>
+  <si>
+    <t>Hair care</t>
+  </si>
+  <si>
+    <t>return Gifts</t>
+  </si>
+  <si>
+    <t>Chess Training classes</t>
+  </si>
+  <si>
+    <t>Sunshine Mehandi</t>
+  </si>
+  <si>
+    <t>Mehandi</t>
+  </si>
+  <si>
+    <t>Baby</t>
+  </si>
+  <si>
+    <t>Silver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Catering Services </t>
+  </si>
+  <si>
+    <t>Electronics</t>
+  </si>
+  <si>
+    <t>Home Appliances</t>
+  </si>
+  <si>
+    <t>examples</t>
+  </si>
+  <si>
+    <t>Mobile Phones, Laptops, Tablets, Smart Watches, Accessories (chargers, cases)</t>
+  </si>
+  <si>
+    <t>Washing Machines, Refrigerators, ACs, Microwave Ovens, Mixers/Grinders</t>
+  </si>
+  <si>
+    <t>Sofas, Beds, Mattresses, Dining Tables, Chairs, Cupboards</t>
+  </si>
+  <si>
+    <t>Fashion</t>
+  </si>
+  <si>
+    <t>Men's Clothing, Women's Clothing, Kids Clothing, Footwear, Accessories (Bags, Watches)</t>
+  </si>
+  <si>
+    <t>Books &amp; Stationery</t>
+  </si>
+  <si>
+    <t>Novels, School Textbooks, Study Guides, Office Supplies</t>
+  </si>
+  <si>
+    <t>Toys &amp; Baby Products</t>
+  </si>
+  <si>
+    <t>Toys, Prams, Car Seats, Baby Furniture, Baby Clothing</t>
+  </si>
+  <si>
+    <t>Vehicles</t>
+  </si>
+  <si>
+    <t>Cars, Bikes, Scooters, Bicycles</t>
+  </si>
+  <si>
+    <t>Sports &amp; Fitness</t>
+  </si>
+  <si>
+    <t>Gym Equipment, Treadmills, Bicycles, Yoga Mats, Sports Gear (Cricket kits, Footballs)</t>
+  </si>
+  <si>
+    <t>Home Decor</t>
+  </si>
+  <si>
+    <t>Paintings, Decorative Lights, Showpieces, Carpets, Curtains</t>
+  </si>
+  <si>
+    <t>Gardening Supplies</t>
+  </si>
+  <si>
+    <t>Pots, Plants, Seeds, Gardening Tools</t>
+  </si>
+  <si>
+    <t>Pet Supplies</t>
+  </si>
+  <si>
+    <t>Pet Food, Toys, Beds, Leashes, Pet Clothing</t>
+  </si>
+  <si>
+    <t>Cakes, Pastries, Cookies,Namkeen, Chips, Home-made Pickles,Organic Vegetables, Homegrown Fruits, Grains, Spices,Tiffins, Meal Boxes</t>
+  </si>
+  <si>
+    <t>Home Services</t>
+  </si>
+  <si>
+    <t>Plumber, Electrician, Carpenter</t>
+  </si>
+  <si>
+    <t>Tutoring</t>
+  </si>
+  <si>
+    <t>Home Tutors, Online Classes, Language Training</t>
+  </si>
+  <si>
+    <t>Fitness</t>
+  </si>
+  <si>
+    <t>Personal Trainers, Yoga Classes, Zumba</t>
+  </si>
+  <si>
+    <t>Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CATEGORY </t>
+  </si>
+  <si>
+    <t>EXAMPLE</t>
+  </si>
+  <si>
+    <t>Beauty Services</t>
+  </si>
+  <si>
+    <t>Home Salon, Makeup Artists</t>
+  </si>
+  <si>
+    <t>Event Services</t>
+  </si>
+  <si>
+    <t>Party Planners, Caterers, Photographers</t>
+  </si>
+  <si>
+    <t>Medical Services</t>
+  </si>
+  <si>
+    <t>Home Nurses, Physiotherapists, Doctors Available in Community</t>
+  </si>
+  <si>
+    <t>Household Supplies</t>
+  </si>
+  <si>
+    <t>Personal care</t>
+  </si>
+  <si>
+    <t>Subcategory</t>
+  </si>
+  <si>
+    <t>Face care, Hair care, Body care, Oral care</t>
+  </si>
+  <si>
+    <t>Educational Services</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -312,16 +613,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -329,17 +644,148 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -350,6 +796,33 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4B0EC9F7-613A-4CA6-9654-49E296309BE0}" name="Table1" displayName="Table1" ref="A1:C17" totalsRowShown="0">
+  <autoFilter ref="A1:C17" xr:uid="{4B0EC9F7-613A-4CA6-9654-49E296309BE0}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{A2198852-2625-459A-8F3A-77203A703B4F}" name="CATEGORY" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{19E57B46-B934-41EC-AEB3-C8895E9B30E3}" name="Subcategory" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{072BC000-2CD8-4410-B119-8E08D56B71E1}" name="examples" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1EC238A7-8B3A-462B-ABF9-56DAB5FA969F}" name="Table2" displayName="Table2" ref="A1:B10" totalsRowShown="0" tableBorderDxfId="1">
+  <autoFilter ref="A1:B10" xr:uid="{1EC238A7-8B3A-462B-ABF9-56DAB5FA969F}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{E8DA4B5A-7274-487B-B413-C8072AEFAED0}" name="CATEGORY "/>
+    <tableColumn id="2" xr3:uid="{821C2AA1-8D51-43B1-8523-BB9A53A6F5F4}" name="EXAMPLE"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -617,9 +1090,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1495,4 +1966,603 @@
   <autoFilter ref="B1:B68" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AD545B6-84E8-428A-9A5B-0442BDDC96A8}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>136</v>
+      </c>
+      <c r="B11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>146</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2EED33F-8BD6-436D-88A1-974AE4D7D2F1}">
+  <dimension ref="A1:C22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>175</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E816E0EF-9E99-407C-BD6F-28743C2AF730}">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>121</v>
+      </c>
+      <c r="B15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>124</v>
+      </c>
+      <c r="B17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>125</v>
+      </c>
+      <c r="B18" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>140</v>
+      </c>
+      <c r="B19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>141</v>
+      </c>
+      <c r="B20" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B21" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBE3D1C1-21BB-4679-A2E0-59A1AE7F3F1B}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B18:B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="63.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B8" s="12"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="11"/>
+      <c r="B10" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>